--- a/parameter_files/v2/dt_dh.xlsx
+++ b/parameter_files/v2/dt_dh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{FA93F119-E56B-4702-A3A6-2FCEC49B51E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73CB294-3DDF-47D5-86B4-29E4C3DCF977}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{FA93F119-E56B-4702-A3A6-2FCEC49B51E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{426199DA-427E-482B-9D36-1DFFDA16B470}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{89E629D4-49B3-4DE5-805D-6F309838F52B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{89E629D4-49B3-4DE5-805D-6F309838F52B}"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Bureau of Reclamation</t>
   </si>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AE21FD-46D5-4C39-8599-9FC222EA7C8F}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562BDEC8-66AD-483B-978E-ED201577D924}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,149 +672,157 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
